--- a/表格模版/叮铛卡航限时达.xlsx
+++ b/表格模版/叮铛卡航限时达.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13400"/>
+    <workbookView windowWidth="22460" windowHeight="9740"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <r>
       <rPr>
@@ -162,17 +162,65 @@
     <t>收件人姓名*</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>粉末</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>收件人公司</t>
+  </si>
+  <si>
     <t>Amazon Fulfillment Center</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>普货</t>
+  </si>
+  <si>
+    <t>收件人地址一*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>粉末</t>
+      <t>报关方式</t>
     </r>
     <r>
       <rPr>
@@ -185,60 +233,6 @@
     </r>
   </si>
   <si>
-    <t>收件人公司</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品属性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>普货</t>
-  </si>
-  <si>
-    <t>收件人地址一*</t>
-  </si>
-  <si>
-    <t>BER8/IXD1 Amazon Verteilzentrum
-Am Möllenpfuhl 2
-12529 Schönefeld
-DE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>报关方式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>买单报关</t>
   </si>
   <si>
@@ -254,9 +248,6 @@
     <t>收件人城市*</t>
   </si>
   <si>
-    <t>Schönefeld</t>
-  </si>
-  <si>
     <t>EORI号</t>
   </si>
   <si>
@@ -273,9 +264,6 @@
   </si>
   <si>
     <t>收件人国家代码(二字代码)*</t>
-  </si>
-  <si>
-    <t>DE</t>
   </si>
   <si>
     <t>收件人电话</t>
@@ -1535,8 +1523,8 @@
   <sheetPr/>
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.6"/>
@@ -1626,13 +1614,11 @@
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>3</v>
@@ -1646,10 +1632,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:12">
       <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1670,16 +1656,14 @@
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="13"/>
@@ -1690,16 +1674,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="13"/>
@@ -1710,15 +1694,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1730,13 +1709,13 @@
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1748,15 +1727,13 @@
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:12">
       <c r="A10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4">
-        <v>12529</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1768,11 +1745,9 @@
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:12">
       <c r="A11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="12"/>
@@ -1786,7 +1761,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1802,7 +1777,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1818,7 +1793,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1834,7 +1809,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1850,13 +1825,8 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="4">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+        <v>33</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1868,61 +1838,61 @@
     </row>
     <row r="17" ht="14" spans="1:19">
       <c r="A17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="K17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="M17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="O17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="P17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="Q17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="R17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="S17" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="57.95" customHeight="1" spans="5:5">
@@ -1940,7 +1910,7 @@
     <row r="28" s="1" customFormat="1" ht="57.95" customHeight="1"/>
     <row r="29" s="1" customFormat="1" ht="57.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="31">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B2:D2"/>
@@ -1955,7 +1925,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F9:G9"/>
@@ -1971,11 +1940,10 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H1:L16"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1 F2:G4">
       <formula1>"否,是"</formula1>
     </dataValidation>
@@ -1988,9 +1956,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:G7">
       <formula1>"包税,自主税号"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:D15">
-      <formula1>"英镑,美元"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="257" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
